--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H2">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I2">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J2">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.7114915154013</v>
+        <v>34.816638</v>
       </c>
       <c r="N2">
-        <v>29.7114915154013</v>
+        <v>104.449914</v>
       </c>
       <c r="O2">
-        <v>0.8975078494515963</v>
+        <v>0.9035735059642001</v>
       </c>
       <c r="P2">
-        <v>0.8975078494515963</v>
+        <v>0.9035735059641998</v>
       </c>
       <c r="Q2">
-        <v>159.7558463600348</v>
+        <v>343.626139532702</v>
       </c>
       <c r="R2">
-        <v>159.7558463600348</v>
+        <v>3092.635255794318</v>
       </c>
       <c r="S2">
-        <v>0.008038346439293985</v>
+        <v>0.01416898228034109</v>
       </c>
       <c r="T2">
-        <v>0.008038346439293985</v>
+        <v>0.01416898228034109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H3">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I3">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J3">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.893453521847984</v>
+        <v>0.8976000000000001</v>
       </c>
       <c r="N3">
-        <v>0.893453521847984</v>
+        <v>2.6928</v>
       </c>
       <c r="O3">
-        <v>0.02698893620211137</v>
+        <v>0.02329482757506529</v>
       </c>
       <c r="P3">
-        <v>0.02698893620211137</v>
+        <v>0.02329482757506528</v>
       </c>
       <c r="Q3">
-        <v>4.804014079609248</v>
+        <v>8.858949070400001</v>
       </c>
       <c r="R3">
-        <v>4.804014079609248</v>
+        <v>79.7305416336</v>
       </c>
       <c r="S3">
-        <v>0.0002417209157035619</v>
+        <v>0.0003652873805573693</v>
       </c>
       <c r="T3">
-        <v>0.0002417209157035619</v>
+        <v>0.0003652873805573692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H4">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I4">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J4">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.08939634298257849</v>
+        <v>0.1110283333333333</v>
       </c>
       <c r="N4">
-        <v>0.08939634298257849</v>
+        <v>0.333085</v>
       </c>
       <c r="O4">
-        <v>0.00270043392125034</v>
+        <v>0.002881445945796428</v>
       </c>
       <c r="P4">
-        <v>0.00270043392125034</v>
+        <v>0.002881445945796427</v>
       </c>
       <c r="Q4">
-        <v>0.4806755806005484</v>
+        <v>1.095804757543889</v>
       </c>
       <c r="R4">
-        <v>0.4806755806005484</v>
+        <v>9.862242817895</v>
       </c>
       <c r="S4">
-        <v>2.418588696321151E-05</v>
+        <v>4.518410099262899E-05</v>
       </c>
       <c r="T4">
-        <v>2.418588696321151E-05</v>
+        <v>4.518410099262898E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H5">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I5">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J5">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0407014287642023</v>
+        <v>0.02089833333333333</v>
       </c>
       <c r="N5">
-        <v>0.0407014287642023</v>
+        <v>0.062695</v>
       </c>
       <c r="O5">
-        <v>0.001229485627836316</v>
+        <v>0.0005423608195256678</v>
       </c>
       <c r="P5">
-        <v>0.001229485627836316</v>
+        <v>0.0005423608195256677</v>
       </c>
       <c r="Q5">
-        <v>0.2188476871622977</v>
+        <v>0.2062581001072223</v>
       </c>
       <c r="R5">
-        <v>0.2188476871622977</v>
+        <v>1.856322900965</v>
       </c>
       <c r="S5">
-        <v>1.101163786447105E-05</v>
+        <v>8.504787702036643E-06</v>
       </c>
       <c r="T5">
-        <v>1.101163786447105E-05</v>
+        <v>8.504787702036641E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H6">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I6">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J6">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.36939358513229</v>
+        <v>0.06472133333333334</v>
       </c>
       <c r="N6">
-        <v>2.36939358513229</v>
+        <v>0.194164</v>
       </c>
       <c r="O6">
-        <v>0.07157329479720557</v>
+        <v>0.001679670566430844</v>
       </c>
       <c r="P6">
-        <v>0.07157329479720557</v>
+        <v>0.001679670566430843</v>
       </c>
       <c r="Q6">
-        <v>12.74000254603959</v>
+        <v>0.6387733910075556</v>
       </c>
       <c r="R6">
-        <v>12.74000254603959</v>
+        <v>5.748960519068</v>
       </c>
       <c r="S6">
-        <v>0.0006410316519607045</v>
+        <v>2.633899991033165E-05</v>
       </c>
       <c r="T6">
-        <v>0.0006410316519607045</v>
+        <v>2.633899991033164E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>243.653187613367</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H7">
-        <v>243.653187613367</v>
+        <v>29.608787</v>
       </c>
       <c r="I7">
-        <v>0.4058525276218909</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J7">
-        <v>0.4058525276218909</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.7114915154013</v>
+        <v>2.621273</v>
       </c>
       <c r="N7">
-        <v>29.7114915154013</v>
+        <v>7.863818999999999</v>
       </c>
       <c r="O7">
-        <v>0.8975078494515963</v>
+        <v>0.06802818912898184</v>
       </c>
       <c r="P7">
-        <v>0.8975078494515963</v>
+        <v>0.06802818912898183</v>
       </c>
       <c r="Q7">
-        <v>7239.299616475035</v>
+        <v>25.87090464195033</v>
       </c>
       <c r="R7">
-        <v>7239.299616475035</v>
+        <v>232.838141777553</v>
       </c>
       <c r="S7">
-        <v>0.3642558292604179</v>
+        <v>0.00106675350701399</v>
       </c>
       <c r="T7">
-        <v>0.3642558292604179</v>
+        <v>0.001066753507013989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>243.653187613367</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H8">
-        <v>243.653187613367</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I8">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J8">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.893453521847984</v>
+        <v>34.816638</v>
       </c>
       <c r="N8">
-        <v>0.893453521847984</v>
+        <v>104.449914</v>
       </c>
       <c r="O8">
-        <v>0.02698893620211137</v>
+        <v>0.9035735059642001</v>
       </c>
       <c r="P8">
-        <v>0.02698893620211137</v>
+        <v>0.9035735059641998</v>
       </c>
       <c r="Q8">
-        <v>217.6927985826503</v>
+        <v>8509.749602375112</v>
       </c>
       <c r="R8">
-        <v>217.6927985826503</v>
+        <v>76587.746421376</v>
       </c>
       <c r="S8">
-        <v>0.01095352797545286</v>
+        <v>0.3508885892387644</v>
       </c>
       <c r="T8">
-        <v>0.01095352797545286</v>
+        <v>0.3508885892387643</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>243.653187613367</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H9">
-        <v>243.653187613367</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I9">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J9">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.08939634298257849</v>
+        <v>0.8976000000000001</v>
       </c>
       <c r="N9">
-        <v>0.08939634298257849</v>
+        <v>2.6928</v>
       </c>
       <c r="O9">
-        <v>0.00270043392125034</v>
+        <v>0.02329482757506529</v>
       </c>
       <c r="P9">
-        <v>0.00270043392125034</v>
+        <v>0.02329482757506528</v>
       </c>
       <c r="Q9">
-        <v>21.7817039286831</v>
+        <v>219.387961672</v>
       </c>
       <c r="R9">
-        <v>21.7817039286831</v>
+        <v>1974.491655048</v>
       </c>
       <c r="S9">
-        <v>0.001095977932615345</v>
+        <v>0.00904618067088255</v>
       </c>
       <c r="T9">
-        <v>0.001095977932615345</v>
+        <v>0.009046180670882548</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>243.653187613367</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H10">
-        <v>243.653187613367</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I10">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J10">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0407014287642023</v>
+        <v>0.1110283333333333</v>
       </c>
       <c r="N10">
-        <v>0.0407014287642023</v>
+        <v>0.333085</v>
       </c>
       <c r="O10">
-        <v>0.001229485627836316</v>
+        <v>0.002881445945796428</v>
       </c>
       <c r="P10">
-        <v>0.001229485627836316</v>
+        <v>0.002881445945796427</v>
       </c>
       <c r="Q10">
-        <v>9.917032858816276</v>
+        <v>27.13712092005278</v>
       </c>
       <c r="R10">
-        <v>9.917032858816276</v>
+        <v>244.234088280475</v>
       </c>
       <c r="S10">
-        <v>0.0004989898497321565</v>
+        <v>0.001118964308066293</v>
       </c>
       <c r="T10">
-        <v>0.0004989898497321565</v>
+        <v>0.001118964308066293</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>243.653187613367</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H11">
-        <v>243.653187613367</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I11">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J11">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.36939358513229</v>
+        <v>0.02089833333333333</v>
       </c>
       <c r="N11">
-        <v>2.36939358513229</v>
+        <v>0.062695</v>
       </c>
       <c r="O11">
-        <v>0.07157329479720557</v>
+        <v>0.0005423608195256678</v>
       </c>
       <c r="P11">
-        <v>0.07157329479720557</v>
+        <v>0.0005423608195256677</v>
       </c>
       <c r="Q11">
-        <v>577.3102997281461</v>
+        <v>5.107890766869446</v>
       </c>
       <c r="R11">
-        <v>577.3102997281461</v>
+        <v>45.971016901825</v>
       </c>
       <c r="S11">
-        <v>0.02904820260367262</v>
+        <v>0.0002106173117799248</v>
       </c>
       <c r="T11">
-        <v>0.02904820260367262</v>
+        <v>0.0002106173117799248</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77.1864861794303</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H12">
-        <v>77.1864861794303</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I12">
-        <v>0.1285693440788597</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J12">
-        <v>0.1285693440788597</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.7114915154013</v>
+        <v>0.06472133333333334</v>
       </c>
       <c r="N12">
-        <v>29.7114915154013</v>
+        <v>0.194164</v>
       </c>
       <c r="O12">
-        <v>0.8975078494515963</v>
+        <v>0.001679670566430844</v>
       </c>
       <c r="P12">
-        <v>0.8975078494515963</v>
+        <v>0.001679670566430843</v>
       </c>
       <c r="Q12">
-        <v>2293.325629223783</v>
+        <v>15.81894094997111</v>
       </c>
       <c r="R12">
-        <v>2293.325629223783</v>
+        <v>142.37046854974</v>
       </c>
       <c r="S12">
-        <v>0.1153919955096197</v>
+        <v>0.0006522737016418745</v>
       </c>
       <c r="T12">
-        <v>0.1153919955096197</v>
+        <v>0.0006522737016418744</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>77.1864861794303</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H13">
-        <v>77.1864861794303</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I13">
-        <v>0.1285693440788597</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J13">
-        <v>0.1285693440788597</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.893453521847984</v>
+        <v>2.621273</v>
       </c>
       <c r="N13">
-        <v>0.893453521847984</v>
+        <v>7.863818999999999</v>
       </c>
       <c r="O13">
-        <v>0.02698893620211137</v>
+        <v>0.06802818912898184</v>
       </c>
       <c r="P13">
-        <v>0.02698893620211137</v>
+        <v>0.06802818912898183</v>
       </c>
       <c r="Q13">
-        <v>68.96253791608275</v>
+        <v>640.6815290283517</v>
       </c>
       <c r="R13">
-        <v>68.96253791608275</v>
+        <v>5766.133761255165</v>
       </c>
       <c r="S13">
-        <v>0.00346994982489165</v>
+        <v>0.0264176795295302</v>
       </c>
       <c r="T13">
-        <v>0.00346994982489165</v>
+        <v>0.0264176795295302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>77.1864861794303</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H14">
-        <v>77.1864861794303</v>
+        <v>275.065831</v>
       </c>
       <c r="I14">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J14">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08939634298257849</v>
+        <v>34.816638</v>
       </c>
       <c r="N14">
-        <v>0.08939634298257849</v>
+        <v>104.449914</v>
       </c>
       <c r="O14">
-        <v>0.00270043392125034</v>
+        <v>0.9035735059642001</v>
       </c>
       <c r="P14">
-        <v>0.00270043392125034</v>
+        <v>0.9035735059641998</v>
       </c>
       <c r="Q14">
-        <v>6.900189592116406</v>
+        <v>3192.289154698726</v>
       </c>
       <c r="R14">
-        <v>6.900189592116406</v>
+        <v>28730.60239228854</v>
       </c>
       <c r="S14">
-        <v>0.0003471930179834593</v>
+        <v>0.1316299409822597</v>
       </c>
       <c r="T14">
-        <v>0.0003471930179834593</v>
+        <v>0.1316299409822597</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>77.1864861794303</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H15">
-        <v>77.1864861794303</v>
+        <v>275.065831</v>
       </c>
       <c r="I15">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J15">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0407014287642023</v>
+        <v>0.8976000000000001</v>
       </c>
       <c r="N15">
-        <v>0.0407014287642023</v>
+        <v>2.6928</v>
       </c>
       <c r="O15">
-        <v>0.001229485627836316</v>
+        <v>0.02329482757506529</v>
       </c>
       <c r="P15">
-        <v>0.001229485627836316</v>
+        <v>0.02329482757506528</v>
       </c>
       <c r="Q15">
-        <v>3.141600268791168</v>
+        <v>82.29969663520001</v>
       </c>
       <c r="R15">
-        <v>3.141600268791168</v>
+        <v>740.6972697168001</v>
       </c>
       <c r="S15">
-        <v>0.0001580741607253002</v>
+        <v>0.003393522229965923</v>
       </c>
       <c r="T15">
-        <v>0.0001580741607253002</v>
+        <v>0.003393522229965923</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>77.1864861794303</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H16">
-        <v>77.1864861794303</v>
+        <v>275.065831</v>
       </c>
       <c r="I16">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J16">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.36939358513229</v>
+        <v>0.1110283333333333</v>
       </c>
       <c r="N16">
-        <v>2.36939358513229</v>
+        <v>0.333085</v>
       </c>
       <c r="O16">
-        <v>0.07157329479720557</v>
+        <v>0.002881445945796428</v>
       </c>
       <c r="P16">
-        <v>0.07157329479720557</v>
+        <v>0.002881445945796427</v>
       </c>
       <c r="Q16">
-        <v>182.8851652124443</v>
+        <v>10.18003359095944</v>
       </c>
       <c r="R16">
-        <v>182.8851652124443</v>
+        <v>91.62030231863501</v>
       </c>
       <c r="S16">
-        <v>0.009202131565639583</v>
+        <v>0.0004197606030779112</v>
       </c>
       <c r="T16">
-        <v>0.009202131565639583</v>
+        <v>0.0004197606030779112</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>79.2784374658949</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H17">
-        <v>79.2784374658949</v>
+        <v>275.065831</v>
       </c>
       <c r="I17">
-        <v>0.1320539022969971</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J17">
-        <v>0.1320539022969971</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>29.7114915154013</v>
+        <v>0.02089833333333333</v>
       </c>
       <c r="N17">
-        <v>29.7114915154013</v>
+        <v>0.062695</v>
       </c>
       <c r="O17">
-        <v>0.8975078494515963</v>
+        <v>0.0005423608195256678</v>
       </c>
       <c r="P17">
-        <v>0.8975078494515963</v>
+        <v>0.0005423608195256677</v>
       </c>
       <c r="Q17">
-        <v>2355.480622122209</v>
+        <v>1.916139141616111</v>
       </c>
       <c r="R17">
-        <v>2355.480622122209</v>
+        <v>17.245252274545</v>
       </c>
       <c r="S17">
-        <v>0.1185194138622691</v>
+        <v>7.900953513358344E-05</v>
       </c>
       <c r="T17">
-        <v>0.1185194138622691</v>
+        <v>7.900953513358346E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>79.2784374658949</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H18">
-        <v>79.2784374658949</v>
+        <v>275.065831</v>
       </c>
       <c r="I18">
-        <v>0.1320539022969971</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J18">
-        <v>0.1320539022969971</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.893453521847984</v>
+        <v>0.06472133333333334</v>
       </c>
       <c r="N18">
-        <v>0.893453521847984</v>
+        <v>0.194164</v>
       </c>
       <c r="O18">
-        <v>0.02698893620211137</v>
+        <v>0.001679670566430844</v>
       </c>
       <c r="P18">
-        <v>0.02698893620211137</v>
+        <v>0.001679670566430843</v>
       </c>
       <c r="Q18">
-        <v>70.83159916050896</v>
+        <v>5.934209112253778</v>
       </c>
       <c r="R18">
-        <v>70.83159916050896</v>
+        <v>53.407882010284</v>
       </c>
       <c r="S18">
-        <v>0.003563994344333502</v>
+        <v>0.0002446894868757811</v>
       </c>
       <c r="T18">
-        <v>0.003563994344333502</v>
+        <v>0.0002446894868757811</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>79.2784374658949</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H19">
-        <v>79.2784374658949</v>
+        <v>275.065831</v>
       </c>
       <c r="I19">
-        <v>0.1320539022969971</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J19">
-        <v>0.1320539022969971</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.08939634298257849</v>
+        <v>2.621273</v>
       </c>
       <c r="N19">
-        <v>0.08939634298257849</v>
+        <v>7.863818999999999</v>
       </c>
       <c r="O19">
-        <v>0.00270043392125034</v>
+        <v>0.06802818912898184</v>
       </c>
       <c r="P19">
-        <v>0.00270043392125034</v>
+        <v>0.06802818912898183</v>
       </c>
       <c r="Q19">
-        <v>7.087202386824041</v>
+        <v>240.3408786742877</v>
       </c>
       <c r="R19">
-        <v>7.087202386824041</v>
+        <v>2163.067908068589</v>
       </c>
       <c r="S19">
-        <v>0.000356602837196289</v>
+        <v>0.009910147277528366</v>
       </c>
       <c r="T19">
-        <v>0.000356602837196289</v>
+        <v>0.009910147277528368</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>79.2784374658949</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H20">
-        <v>79.2784374658949</v>
+        <v>242.762237</v>
       </c>
       <c r="I20">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J20">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0407014287642023</v>
+        <v>34.816638</v>
       </c>
       <c r="N20">
-        <v>0.0407014287642023</v>
+        <v>104.449914</v>
       </c>
       <c r="O20">
-        <v>0.001229485627836316</v>
+        <v>0.9035735059642001</v>
       </c>
       <c r="P20">
-        <v>0.001229485627836316</v>
+        <v>0.9035735059641998</v>
       </c>
       <c r="Q20">
-        <v>3.226745675055388</v>
+        <v>2817.388308566403</v>
       </c>
       <c r="R20">
-        <v>3.226745675055388</v>
+        <v>25356.49477709762</v>
       </c>
       <c r="S20">
-        <v>0.000162358374973859</v>
+        <v>0.1161713863654382</v>
       </c>
       <c r="T20">
-        <v>0.000162358374973859</v>
+        <v>0.1161713863654382</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>79.2784374658949</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H21">
-        <v>79.2784374658949</v>
+        <v>242.762237</v>
       </c>
       <c r="I21">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J21">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.36939358513229</v>
+        <v>0.8976000000000001</v>
       </c>
       <c r="N21">
-        <v>2.36939358513229</v>
+        <v>2.6928</v>
       </c>
       <c r="O21">
-        <v>0.07157329479720557</v>
+        <v>0.02329482757506529</v>
       </c>
       <c r="P21">
-        <v>0.07157329479720557</v>
+        <v>0.02329482757506528</v>
       </c>
       <c r="Q21">
-        <v>187.8418211710027</v>
+        <v>72.63446131040001</v>
       </c>
       <c r="R21">
-        <v>187.8418211710027</v>
+        <v>653.7101517936001</v>
       </c>
       <c r="S21">
-        <v>0.009451532878224353</v>
+        <v>0.002994988671841817</v>
       </c>
       <c r="T21">
-        <v>0.009451532878224353</v>
+        <v>0.002994988671841817</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>126.847645656103</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H22">
-        <v>126.847645656103</v>
+        <v>242.762237</v>
       </c>
       <c r="I22">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J22">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>29.7114915154013</v>
+        <v>0.1110283333333333</v>
       </c>
       <c r="N22">
-        <v>29.7114915154013</v>
+        <v>0.333085</v>
       </c>
       <c r="O22">
-        <v>0.8975078494515963</v>
+        <v>0.002881445945796428</v>
       </c>
       <c r="P22">
-        <v>0.8975078494515963</v>
+        <v>0.002881445945796427</v>
       </c>
       <c r="Q22">
-        <v>3768.832747659935</v>
+        <v>8.984495523460557</v>
       </c>
       <c r="R22">
-        <v>3768.832747659935</v>
+        <v>80.86045971114501</v>
       </c>
       <c r="S22">
-        <v>0.1896342699670087</v>
+        <v>0.0003704641272134699</v>
       </c>
       <c r="T22">
-        <v>0.1896342699670087</v>
+        <v>0.0003704641272134699</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>126.847645656103</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H23">
-        <v>126.847645656103</v>
+        <v>242.762237</v>
       </c>
       <c r="I23">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J23">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.893453521847984</v>
+        <v>0.02089833333333333</v>
       </c>
       <c r="N23">
-        <v>0.893453521847984</v>
+        <v>0.062695</v>
       </c>
       <c r="O23">
-        <v>0.02698893620211137</v>
+        <v>0.0005423608195256678</v>
       </c>
       <c r="P23">
-        <v>0.02698893620211137</v>
+        <v>0.0005423608195256677</v>
       </c>
       <c r="Q23">
-        <v>113.3324757495703</v>
+        <v>1.691108716523889</v>
       </c>
       <c r="R23">
-        <v>113.3324757495703</v>
+        <v>15.219978448715</v>
       </c>
       <c r="S23">
-        <v>0.005702487412228011</v>
+        <v>6.973069473452272E-05</v>
       </c>
       <c r="T23">
-        <v>0.005702487412228011</v>
+        <v>6.973069473452272E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>126.847645656103</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H24">
-        <v>126.847645656103</v>
+        <v>242.762237</v>
       </c>
       <c r="I24">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J24">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.08939634298257849</v>
+        <v>0.06472133333333334</v>
       </c>
       <c r="N24">
-        <v>0.08939634298257849</v>
+        <v>0.194164</v>
       </c>
       <c r="O24">
-        <v>0.00270043392125034</v>
+        <v>0.001679670566430844</v>
       </c>
       <c r="P24">
-        <v>0.00270043392125034</v>
+        <v>0.001679670566430843</v>
       </c>
       <c r="Q24">
-        <v>11.33971563760557</v>
+        <v>5.237298553874223</v>
       </c>
       <c r="R24">
-        <v>11.33971563760557</v>
+        <v>47.13568698486801</v>
       </c>
       <c r="S24">
-        <v>0.0005705741911487011</v>
+        <v>0.000215953275579135</v>
       </c>
       <c r="T24">
-        <v>0.0005705741911487011</v>
+        <v>0.000215953275579135</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>126.847645656103</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H25">
-        <v>126.847645656103</v>
+        <v>242.762237</v>
       </c>
       <c r="I25">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J25">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.0407014287642023</v>
+        <v>2.621273</v>
       </c>
       <c r="N25">
-        <v>0.0407014287642023</v>
+        <v>7.863818999999999</v>
       </c>
       <c r="O25">
-        <v>0.001229485627836316</v>
+        <v>0.06802818912898184</v>
       </c>
       <c r="P25">
-        <v>0.001229485627836316</v>
+        <v>0.06802818912898183</v>
       </c>
       <c r="Q25">
-        <v>5.162880413578652</v>
+        <v>212.1153657559003</v>
       </c>
       <c r="R25">
-        <v>5.162880413578652</v>
+        <v>1909.038291803103</v>
       </c>
       <c r="S25">
-        <v>0.000259777794269022</v>
+        <v>0.008746304524069536</v>
       </c>
       <c r="T25">
-        <v>0.000259777794269022</v>
+        <v>0.008746304524069536</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>126.847645656103</v>
+        <v>129.147616</v>
       </c>
       <c r="H26">
-        <v>126.847645656103</v>
+        <v>387.442848</v>
       </c>
       <c r="I26">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J26">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.36939358513229</v>
+        <v>34.816638</v>
       </c>
       <c r="N26">
-        <v>2.36939358513229</v>
+        <v>104.449914</v>
       </c>
       <c r="O26">
-        <v>0.07157329479720557</v>
+        <v>0.9035735059642001</v>
       </c>
       <c r="P26">
-        <v>0.07157329479720557</v>
+        <v>0.9035735059641998</v>
       </c>
       <c r="Q26">
-        <v>300.5519979067042</v>
+        <v>4496.485794835008</v>
       </c>
       <c r="R26">
-        <v>300.5519979067042</v>
+        <v>40468.37215351507</v>
       </c>
       <c r="S26">
-        <v>0.01512270841563662</v>
+        <v>0.1854068134556437</v>
       </c>
       <c r="T26">
-        <v>0.01512270841563662</v>
+        <v>0.1854068134556436</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>68.00640903202169</v>
+        <v>129.147616</v>
       </c>
       <c r="H27">
-        <v>68.00640903202169</v>
+        <v>387.442848</v>
       </c>
       <c r="I27">
-        <v>0.1132781116901752</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J27">
-        <v>0.1132781116901752</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>29.7114915154013</v>
+        <v>0.8976000000000001</v>
       </c>
       <c r="N27">
-        <v>29.7114915154013</v>
+        <v>2.6928</v>
       </c>
       <c r="O27">
-        <v>0.8975078494515963</v>
+        <v>0.02329482757506529</v>
       </c>
       <c r="P27">
-        <v>0.8975078494515963</v>
+        <v>0.02329482757506528</v>
       </c>
       <c r="Q27">
-        <v>2020.571844947823</v>
+        <v>115.9229001216</v>
       </c>
       <c r="R27">
-        <v>2020.571844947823</v>
+        <v>1043.3061010944</v>
       </c>
       <c r="S27">
-        <v>0.1016679944129869</v>
+        <v>0.004779931817592087</v>
       </c>
       <c r="T27">
-        <v>0.1016679944129869</v>
+        <v>0.004779931817592086</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>68.00640903202169</v>
+        <v>129.147616</v>
       </c>
       <c r="H28">
-        <v>68.00640903202169</v>
+        <v>387.442848</v>
       </c>
       <c r="I28">
-        <v>0.1132781116901752</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J28">
-        <v>0.1132781116901752</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.893453521847984</v>
+        <v>0.1110283333333333</v>
       </c>
       <c r="N28">
-        <v>0.893453521847984</v>
+        <v>0.333085</v>
       </c>
       <c r="O28">
-        <v>0.02698893620211137</v>
+        <v>0.002881445945796428</v>
       </c>
       <c r="P28">
-        <v>0.02698893620211137</v>
+        <v>0.002881445945796427</v>
       </c>
       <c r="Q28">
-        <v>60.76056565789433</v>
+        <v>14.33904455845333</v>
       </c>
       <c r="R28">
-        <v>60.76056565789433</v>
+        <v>129.05140102608</v>
       </c>
       <c r="S28">
-        <v>0.003057255729501785</v>
+        <v>0.0005912520757065733</v>
       </c>
       <c r="T28">
-        <v>0.003057255729501785</v>
+        <v>0.0005912520757065732</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>68.00640903202169</v>
+        <v>129.147616</v>
       </c>
       <c r="H29">
-        <v>68.00640903202169</v>
+        <v>387.442848</v>
       </c>
       <c r="I29">
-        <v>0.1132781116901752</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J29">
-        <v>0.1132781116901752</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.08939634298257849</v>
+        <v>0.02089833333333333</v>
       </c>
       <c r="N29">
-        <v>0.08939634298257849</v>
+        <v>0.062695</v>
       </c>
       <c r="O29">
-        <v>0.00270043392125034</v>
+        <v>0.0005423608195256678</v>
       </c>
       <c r="P29">
-        <v>0.00270043392125034</v>
+        <v>0.0005423608195256677</v>
       </c>
       <c r="Q29">
-        <v>6.079524266840135</v>
+        <v>2.698969928373334</v>
       </c>
       <c r="R29">
-        <v>6.079524266840135</v>
+        <v>24.29072935536</v>
       </c>
       <c r="S29">
-        <v>0.0003059000553433338</v>
+        <v>0.0001112885566339631</v>
       </c>
       <c r="T29">
-        <v>0.0003059000553433338</v>
+        <v>0.0001112885566339631</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>68.00640903202169</v>
+        <v>129.147616</v>
       </c>
       <c r="H30">
-        <v>68.00640903202169</v>
+        <v>387.442848</v>
       </c>
       <c r="I30">
-        <v>0.1132781116901752</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J30">
-        <v>0.1132781116901752</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.0407014287642023</v>
+        <v>0.06472133333333334</v>
       </c>
       <c r="N30">
-        <v>0.0407014287642023</v>
+        <v>0.194164</v>
       </c>
       <c r="O30">
-        <v>0.001229485627836316</v>
+        <v>0.001679670566430844</v>
       </c>
       <c r="P30">
-        <v>0.001229485627836316</v>
+        <v>0.001679670566430843</v>
       </c>
       <c r="Q30">
-        <v>2.767958012726035</v>
+        <v>8.358605904341333</v>
       </c>
       <c r="R30">
-        <v>2.767958012726035</v>
+        <v>75.227453139072</v>
       </c>
       <c r="S30">
-        <v>0.0001392738102715074</v>
+        <v>0.0003446563730804182</v>
       </c>
       <c r="T30">
-        <v>0.0001392738102715074</v>
+        <v>0.0003446563730804182</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>68.00640903202169</v>
+        <v>129.147616</v>
       </c>
       <c r="H31">
-        <v>68.00640903202169</v>
+        <v>387.442848</v>
       </c>
       <c r="I31">
-        <v>0.1132781116901752</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J31">
-        <v>0.1132781116901752</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.36939358513229</v>
+        <v>2.621273</v>
       </c>
       <c r="N31">
-        <v>2.36939358513229</v>
+        <v>7.863818999999999</v>
       </c>
       <c r="O31">
-        <v>0.07157329479720557</v>
+        <v>0.06802818912898184</v>
       </c>
       <c r="P31">
-        <v>0.07157329479720557</v>
+        <v>0.06802818912898183</v>
       </c>
       <c r="Q31">
-        <v>161.1339493083548</v>
+        <v>338.531158835168</v>
       </c>
       <c r="R31">
-        <v>161.1339493083548</v>
+        <v>3046.780429516512</v>
       </c>
       <c r="S31">
-        <v>0.008107687682071688</v>
+        <v>0.01395889729867988</v>
       </c>
       <c r="T31">
-        <v>0.008107687682071688</v>
+        <v>0.01395889729867988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H32">
+        <v>220.060691</v>
+      </c>
+      <c r="I32">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J32">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>34.816638</v>
+      </c>
+      <c r="N32">
+        <v>104.449914</v>
+      </c>
+      <c r="O32">
+        <v>0.9035735059642001</v>
+      </c>
+      <c r="P32">
+        <v>0.9035735059641998</v>
+      </c>
+      <c r="Q32">
+        <v>2553.924472192286</v>
+      </c>
+      <c r="R32">
+        <v>22985.32024973058</v>
+      </c>
+      <c r="S32">
+        <v>0.1053077936417529</v>
+      </c>
+      <c r="T32">
+        <v>0.1053077936417529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H33">
+        <v>220.060691</v>
+      </c>
+      <c r="I33">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J33">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.8976000000000001</v>
+      </c>
+      <c r="N33">
+        <v>2.6928</v>
+      </c>
+      <c r="O33">
+        <v>0.02329482757506529</v>
+      </c>
+      <c r="P33">
+        <v>0.02329482757506528</v>
+      </c>
+      <c r="Q33">
+        <v>65.84215874720002</v>
+      </c>
+      <c r="R33">
+        <v>592.5794287248001</v>
+      </c>
+      <c r="S33">
+        <v>0.002714916804225538</v>
+      </c>
+      <c r="T33">
+        <v>0.002714916804225538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H34">
+        <v>220.060691</v>
+      </c>
+      <c r="I34">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J34">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.1110283333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.333085</v>
+      </c>
+      <c r="O34">
+        <v>0.002881445945796428</v>
+      </c>
+      <c r="P34">
+        <v>0.002881445945796427</v>
+      </c>
+      <c r="Q34">
+        <v>8.144323917970556</v>
+      </c>
+      <c r="R34">
+        <v>73.298915261735</v>
+      </c>
+      <c r="S34">
+        <v>0.0003358207307395511</v>
+      </c>
+      <c r="T34">
+        <v>0.0003358207307395511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H35">
+        <v>220.060691</v>
+      </c>
+      <c r="I35">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J35">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.02089833333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.062695</v>
+      </c>
+      <c r="O35">
+        <v>0.0005423608195256678</v>
+      </c>
+      <c r="P35">
+        <v>0.0005423608195256677</v>
+      </c>
+      <c r="Q35">
+        <v>1.532967224693889</v>
+      </c>
+      <c r="R35">
+        <v>13.796705022245</v>
+      </c>
+      <c r="S35">
+        <v>6.3209933541637E-05</v>
+      </c>
+      <c r="T35">
+        <v>6.3209933541637E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H36">
+        <v>220.060691</v>
+      </c>
+      <c r="I36">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J36">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.06472133333333334</v>
+      </c>
+      <c r="N36">
+        <v>0.194164</v>
+      </c>
+      <c r="O36">
+        <v>0.001679670566430844</v>
+      </c>
+      <c r="P36">
+        <v>0.001679670566430843</v>
+      </c>
+      <c r="Q36">
+        <v>4.747540445258223</v>
+      </c>
+      <c r="R36">
+        <v>42.727864007324</v>
+      </c>
+      <c r="S36">
+        <v>0.0001957587293433034</v>
+      </c>
+      <c r="T36">
+        <v>0.0001957587293433034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H37">
+        <v>220.060691</v>
+      </c>
+      <c r="I37">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J37">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.621273</v>
+      </c>
+      <c r="N37">
+        <v>7.863818999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.06802818912898184</v>
+      </c>
+      <c r="P37">
+        <v>0.06802818912898183</v>
+      </c>
+      <c r="Q37">
+        <v>192.2797158932144</v>
+      </c>
+      <c r="R37">
+        <v>1730.517443038929</v>
+      </c>
+      <c r="S37">
+        <v>0.007928406992159857</v>
+      </c>
+      <c r="T37">
+        <v>0.007928406992159857</v>
       </c>
     </row>
   </sheetData>
